--- a/SSBcc_JER25_ 4 Nov 2024.xlsx
+++ b/SSBcc_JER25_ 4 Nov 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eceuropaeu-my.sharepoint.com/personal/aleksander_rutkowski_ec_europa_eu/Documents/Social_Scoreboard_in_R/FRESH NEW APPROACH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{631E9093-106F-427D-9D82-0E75FB1A728A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68EFE545-C65F-4C2D-8529-5C1418EC9B39}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{631E9093-106F-427D-9D82-0E75FB1A728A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3B7CB55-56E7-4C3C-9839-2FF03E87B3C8}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="21549" tabRatio="798" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="21549" tabRatio="798" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SSB categories" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="66">
   <si>
     <t>Data year</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>Self-reported unmet need for medical care</t>
-  </si>
-  <si>
-    <t>A genuine unofficial EMPL.F1.Skunkworks product</t>
   </si>
   <si>
     <t>Legend</t>
@@ -1115,6 +1112,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -1417,7 +1418,7 @@
   </sheetPr>
   <dimension ref="A1:WQ32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1430,7 +1431,7 @@
   <sheetData>
     <row r="1" spans="1:615" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>0</v>
@@ -1671,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="AP2" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:615" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -1805,7 +1806,7 @@
         <v>9</v>
       </c>
       <c r="AP3" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:615" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -1939,7 +1940,7 @@
         <v>10</v>
       </c>
       <c r="AP4" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="UX4">
         <v>54.23</v>
@@ -4860,7 +4861,7 @@
         <v>11</v>
       </c>
       <c r="AP7" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="EH7">
         <v>4.04</v>
@@ -9948,7 +9949,7 @@
         <v>10</v>
       </c>
       <c r="AP11" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="EH11">
         <v>94.9</v>
@@ -12860,7 +12861,7 @@
         <v>9</v>
       </c>
       <c r="AP14" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="EH14">
         <v>47.7</v>
@@ -14351,7 +14352,7 @@
         <v>9</v>
       </c>
       <c r="AP15" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="NQ15">
         <v>34.4</v>
@@ -16651,7 +16652,7 @@
         <v>9</v>
       </c>
       <c r="AP17" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="EH17">
         <v>42</v>
@@ -19262,9 +19263,7 @@
       </c>
     </row>
     <row r="20" spans="1:615" x14ac:dyDescent="0.4">
-      <c r="A20" s="42" t="s">
-        <v>46</v>
-      </c>
+      <c r="A20" s="42"/>
       <c r="AF20" s="61"/>
       <c r="AG20" s="61"/>
       <c r="AH20" s="61"/>
@@ -19276,12 +19275,12 @@
     </row>
     <row r="21" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A21" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A22" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="45">
         <v>3</v>
@@ -19401,7 +19400,7 @@
     </row>
     <row r="23" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A23" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="46">
         <v>2</v>
@@ -19521,7 +19520,7 @@
     </row>
     <row r="24" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A24" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="47">
         <v>1</v>
@@ -19641,7 +19640,7 @@
     </row>
     <row r="25" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A25" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="61">
@@ -19759,7 +19758,7 @@
     </row>
     <row r="26" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A26" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="48">
         <v>-1</v>
@@ -19879,7 +19878,7 @@
     </row>
     <row r="27" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A27" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="49">
         <v>-2</v>
@@ -19999,7 +19998,7 @@
     </row>
     <row r="28" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A28" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="50">
         <v>-3</v>
@@ -20119,7 +20118,7 @@
     </row>
     <row r="29" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A29" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="51"/>
       <c r="C29" s="61">
@@ -20237,7 +20236,7 @@
     </row>
     <row r="31" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A31" s="43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="61">
         <f>C27+C28</f>
@@ -20472,8 +20471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2C186D-6728-4200-A6E7-8B0ED9E43678}">
   <dimension ref="A1:WQ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -20488,7 +20487,7 @@
   <sheetData>
     <row r="1" spans="1:615" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>0</v>
@@ -20729,7 +20728,7 @@
         <v>9</v>
       </c>
       <c r="AP2" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:615" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -20863,7 +20862,7 @@
         <v>9</v>
       </c>
       <c r="AP3" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:615" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -20997,7 +20996,7 @@
         <v>10</v>
       </c>
       <c r="AP4" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="UX4">
         <v>54.23</v>
@@ -23916,7 +23915,7 @@
         <v>10</v>
       </c>
       <c r="AP7" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="EH7">
         <v>4.04</v>
@@ -31906,7 +31905,7 @@
         <v>9</v>
       </c>
       <c r="AP14" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="EH14">
         <v>47.7</v>
@@ -33399,7 +33398,7 @@
         <v>9</v>
       </c>
       <c r="AP15" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="NQ15">
         <v>34.4</v>
@@ -35698,7 +35697,7 @@
         <v>9</v>
       </c>
       <c r="AP17" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="EH17">
         <v>42</v>
@@ -38308,9 +38307,7 @@
       </c>
     </row>
     <row r="20" spans="1:615" x14ac:dyDescent="0.4">
-      <c r="A20" s="42" t="s">
-        <v>46</v>
-      </c>
+      <c r="A20" s="42"/>
       <c r="AF20" s="61"/>
       <c r="AG20" s="61"/>
       <c r="AH20" s="61"/>
@@ -38322,12 +38319,12 @@
     </row>
     <row r="21" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A21" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A22" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="45">
         <v>3</v>
@@ -38447,7 +38444,7 @@
     </row>
     <row r="23" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A23" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="46">
         <v>2</v>
@@ -38567,7 +38564,7 @@
     </row>
     <row r="24" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A24" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="47">
         <v>1</v>
@@ -38687,7 +38684,7 @@
     </row>
     <row r="25" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A25" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="61">
@@ -38805,7 +38802,7 @@
     </row>
     <row r="26" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A26" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="48">
         <v>-1</v>
@@ -38925,7 +38922,7 @@
     </row>
     <row r="27" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A27" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="49">
         <v>-2</v>
@@ -39045,7 +39042,7 @@
     </row>
     <row r="28" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A28" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="50">
         <v>-3</v>
@@ -39165,7 +39162,7 @@
     </row>
     <row r="29" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A29" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="51"/>
       <c r="C29" s="61">
@@ -39283,7 +39280,7 @@
     </row>
     <row r="31" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A31" s="43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="61">
         <f>C27+C28</f>
@@ -39616,16 +39613,16 @@
         <v>27</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="AF1" s="53" t="s">
+      <c r="AG1" s="53" t="s">
         <v>60</v>
-      </c>
-      <c r="AG1" s="53" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:615" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -57224,7 +57221,7 @@
     </row>
     <row r="19" spans="1:615" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A19" s="54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="52" t="e">
         <f>AVERAGEIF(C3:C18,"&lt;&gt;0")</f>
@@ -57341,7 +57338,7 @@
     </row>
     <row r="20" spans="1:615" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A20" s="54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20">
         <f>COUNTIF(C3:C18,"&lt;&gt;0")</f>
@@ -57458,7 +57455,7 @@
     </row>
     <row r="21" spans="1:615" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A21" s="57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21">
         <f>COUNTIF(C3:C18,"&gt;0")</f>
@@ -57575,7 +57572,7 @@
     </row>
     <row r="22" spans="1:615" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A22" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22">
         <f>COUNTIF(C3:C18,"&lt;0")</f>
@@ -57692,17 +57689,17 @@
     </row>
     <row r="24" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A24" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A25" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A26" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="45">
         <v>3</v>
@@ -57713,7 +57710,7 @@
     </row>
     <row r="27" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A27" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="46">
         <v>2</v>
@@ -57724,7 +57721,7 @@
     </row>
     <row r="28" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A28" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="47">
         <v>1</v>
@@ -57735,7 +57732,7 @@
     </row>
     <row r="29" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A29" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29">
@@ -57744,7 +57741,7 @@
     </row>
     <row r="30" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A30" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="48">
         <v>-1</v>
@@ -57755,7 +57752,7 @@
     </row>
     <row r="31" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A31" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="49">
         <v>-2</v>
@@ -57766,7 +57763,7 @@
     </row>
     <row r="32" spans="1:615" x14ac:dyDescent="0.4">
       <c r="A32" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="50">
         <v>-3</v>
@@ -57777,7 +57774,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" s="51"/>
     </row>
@@ -61180,7 +61177,7 @@
         <v>27</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -66553,7 +66550,7 @@
         <v>27</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -68625,6 +68622,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="541a8a8b-b856-4d35-a5c7-7f2c0ec3d499">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Comment xmlns="541a8a8b-b856-4d35-a5c7-7f2c0ec3d499" xsi:nil="true"/>
+    <TaxCatchAll xmlns="e0757b53-df10-4b98-9811-094c4c3e23a8" xsi:nil="true"/>
+    <Year xmlns="541a8a8b-b856-4d35-a5c7-7f2c0ec3d499" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100087E4EC354ADFB40AC5D4FC129E379BA" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="930edc89c2fe6a9020868dfc8e617521">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="541a8a8b-b856-4d35-a5c7-7f2c0ec3d499" xmlns:ns3="e0757b53-df10-4b98-9811-094c4c3e23a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97c81126709f1cede8de6921efd2d12f" ns2:_="" ns3:_="">
     <xsd:import namespace="541a8a8b-b856-4d35-a5c7-7f2c0ec3d499"/>
@@ -68887,29 +68906,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E193DFF8-8C67-4ADA-A08F-9911E9E41319}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e0757b53-df10-4b98-9811-094c4c3e23a8"/>
+    <ds:schemaRef ds:uri="541a8a8b-b856-4d35-a5c7-7f2c0ec3d499"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="541a8a8b-b856-4d35-a5c7-7f2c0ec3d499">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Comment xmlns="541a8a8b-b856-4d35-a5c7-7f2c0ec3d499" xsi:nil="true"/>
-    <TaxCatchAll xmlns="e0757b53-df10-4b98-9811-094c4c3e23a8" xsi:nil="true"/>
-    <Year xmlns="541a8a8b-b856-4d35-a5c7-7f2c0ec3d499" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98B2D119-3A12-4F63-B27A-B803045ABE5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6028C97-93D2-4267-92F5-828B07F2E253}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -68926,29 +68948,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98B2D119-3A12-4F63-B27A-B803045ABE5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E193DFF8-8C67-4ADA-A08F-9911E9E41319}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e0757b53-df10-4b98-9811-094c4c3e23a8"/>
-    <ds:schemaRef ds:uri="541a8a8b-b856-4d35-a5c7-7f2c0ec3d499"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>